--- a/CH-108 AVG Cooperation time.xlsx
+++ b/CH-108 AVG Cooperation time.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26932618-A873-45EE-98C0-3BA7EF0418DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA45CD77-6828-48FA-A38A-EB645D220BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Alt1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -700,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,4 +1081,397 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABCA3EF-CC2C-4C30-B434-E409E5304F57}">
+  <dimension ref="B1:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="3" width="14" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
+    <col min="11" max="11" width="24.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="14" max="14" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="J1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="M1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="13">
+        <v>43018</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="15">
+        <v>57.366666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13">
+        <v>43218</v>
+      </c>
+      <c r="E4" s="13">
+        <v>44142</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="15">
+        <v>68.822222222222223</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="13">
+        <v>43402</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="13">
+        <v>43651</v>
+      </c>
+      <c r="E6" s="13">
+        <v>44617</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="13">
+        <v>43822</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="13">
+        <v>43915</v>
+      </c>
+      <c r="E8" s="13">
+        <v>44486</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="13">
+        <v>43946</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13">
+        <v>44190</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="13">
+        <v>44410</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="13">
+        <v>44417</v>
+      </c>
+      <c r="E12" s="13">
+        <v>45222</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E15" s="14"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E16" s="14"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="str" cm="1">
+        <f t="array" ref="C17:D19">_xlfn.LET(
+_xlpm.a, _xlfn._xlws.FILTER(_xlfn.HSTACK(C3:C12,"2024-08-16"-D3:D12),E3:E12="-"),
+_xlfn.VSTACK(_xlfn.HSTACK("Staff ID", "AVG Cooperation in month"), _xlfn.GROUPBY(_xlfn.TAKE(_xlpm.a,,1), _xlfn.TAKE(_xlpm.a,,-1)/365*12,_xleta.AVERAGE,0,0))
+)</f>
+        <v>Staff ID</v>
+      </c>
+      <c r="D17" s="16" t="str">
+        <v>AVG Cooperation in month</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="4" cm="1">
+        <f t="array" ref="F17:F18">_xlfn.MAP(J3:J4,_xlfn.LAMBDA(_xlpm.x,AVERAGE(_xlfn._xlws.FILTER(DATEDIF(D3:D12,DATE(2024,8,16),"m"),(C3:C12=_xlpm.x)*(E3:E12&lt;&gt;"-")))))</f>
+        <v>44</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="str" cm="1">
+        <f t="array" ref="H17:I18">_xlfn.LET(_xlpm.u, _xlfn.UNIQUE(C3:C12), _xlfn.HSTACK(_xlpm.u, _xlfn.MAP(_xlpm.u, _xlfn.LAMBDA(_xlpm.a, AVERAGE(_xlfn._xlws.FILTER(45520-D3:D12, (C3:C12=_xlpm.a)*(E3:E12="-"))/30)))))</f>
+        <v>Expert</v>
+      </c>
+      <c r="I17" s="4">
+        <v>57.366666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="4" t="str">
+        <v>Expert</v>
+      </c>
+      <c r="D18" s="4">
+        <v>56.580821917808223</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="4">
+        <v>68</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="str">
+        <v>Managerial</v>
+      </c>
+      <c r="I18" s="4">
+        <v>57.466666666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="str">
+        <v>Managerial</v>
+      </c>
+      <c r="D19" s="4">
+        <v>56.679452054794524</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E20" s="14"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E21" s="14"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E22" s="14"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E23" s="14"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E24" s="14"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CH-108 AVG Cooperation time.xlsx
+++ b/CH-108 AVG Cooperation time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA45CD77-6828-48FA-A38A-EB645D220BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAA0626-A94B-4F90-82B4-DA88102FBC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,8 +128,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dddd"/>
+    <numFmt numFmtId="169" formatCode="0.000;\-0.000;0.000;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -293,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -333,6 +334,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,6 +721,33 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="841" row="9">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{EDCB4ED2-8C9B-400B-8E91-E9470C90D8C8}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M25"/>
@@ -1085,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABCA3EF-CC2C-4C30-B434-E409E5304F57}">
-  <dimension ref="B1:M25"/>
+  <dimension ref="B1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1371,8 +1400,11 @@
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="str" cm="1">
         <f t="array" ref="C17:D19">_xlfn.LET(
-_xlpm.a, _xlfn._xlws.FILTER(_xlfn.HSTACK(C3:C12,"2024-08-16"-D3:D12),E3:E12="-"),
-_xlfn.VSTACK(_xlfn.HSTACK("Staff ID", "AVG Cooperation in month"), _xlfn.GROUPBY(_xlfn.TAKE(_xlpm.a,,1), _xlfn.TAKE(_xlpm.a,,-1)/365*12,_xleta.AVERAGE,0,0))
+    _xlpm.a, _xlfn._xlws.FILTER(_xlfn.HSTACK(C3:C12, "2024-08-16" - D3:D12), E3:E12 = "-"),
+    _xlfn.VSTACK(
+        _xlfn.HSTACK("Staff ID", "AVG Cooperation in month"),
+        _xlfn.GROUPBY(_xlfn.TAKE(_xlpm.a, , 1), _xlfn.TAKE(_xlpm.a, , -1) / 365 * 12, _xleta.AVERAGE, 0, 0)
+    )
 )</f>
         <v>Staff ID</v>
       </c>
@@ -1440,31 +1472,105 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E22" s="14"/>
+      <c r="C22" s="4" t="str" cm="1">
+        <f t="array" ref="C22:D27">_xlfn.LET(
+    _xlpm.a, _xlfn._xlws.FILTER(_xlfn.HSTACK(C3:C12, "2024-08-16" - D3:D12), E3:E12 = "-"),
+_xlpm.a
+)</f>
+        <v>Expert</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2502</v>
+      </c>
+      <c r="E22" s="14">
+        <f>D22/365*12</f>
+        <v>82.257534246575347</v>
+      </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1" t="str" cm="1">
+        <f t="array" ref="G22:H23">_xlfn.GROUPBY(C22:C27,D22:D27/365*12,_xleta.AVERAGE,0,0)</f>
+        <v>Expert</v>
+      </c>
+      <c r="H22" s="19">
+        <v>56.580821917808223</v>
+      </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E23" s="14"/>
+      <c r="C23" s="4" t="str">
+        <v>Managerial</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2118</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" ref="E23:E27" si="0">D23/365*12</f>
+        <v>69.632876712328766</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1" t="str">
+        <v>Managerial</v>
+      </c>
+      <c r="H23" s="19">
+        <v>56.679452054794524</v>
+      </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E24" s="14"/>
+      <c r="C24" s="4" t="str">
+        <v>Expert</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1698</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="0"/>
+        <v>55.824657534246569</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="4" t="str">
+        <v>Expert</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1574</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="0"/>
+        <v>51.747945205479454</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="4" t="str">
+        <v>Managerial</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1330</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="0"/>
+        <v>43.726027397260275</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="4" t="str">
+        <v>Expert</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1110</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="0"/>
+        <v>36.493150684931507</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/CH-108 AVG Cooperation time.xlsx
+++ b/CH-108 AVG Cooperation time.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAA0626-A94B-4F90-82B4-DA88102FBC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659BA8B8-E2B7-48F4-AAB7-5ABFA1A52B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
-    <sheet name="Alt1" sheetId="2" r:id="rId2"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -130,7 +130,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dddd"/>
-    <numFmt numFmtId="169" formatCode="0.000;\-0.000;0.000;@"/>
+    <numFmt numFmtId="165" formatCode="0.000;\-0.000;0.000;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -328,13 +328,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,6 +739,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -752,7 +755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -770,16 +773,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="J1" s="18" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="J1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="18"/>
+      <c r="K1" s="19"/>
       <c r="M1" s="9" t="s">
         <v>20</v>
       </c>
@@ -1116,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABCA3EF-CC2C-4C30-B434-E409E5304F57}">
   <dimension ref="B1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,16 +1137,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="J1" s="18" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="J1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="18"/>
+      <c r="K1" s="19"/>
       <c r="M1" s="9" t="s">
         <v>20</v>
       </c>
@@ -1397,7 +1400,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="str" cm="1">
         <f t="array" ref="C17:D19">_xlfn.LET(
     _xlpm.a, _xlfn._xlws.FILTER(_xlfn.HSTACK(C3:C12, "2024-08-16" - D3:D12), E3:E12 = "-"),
@@ -1425,7 +1428,7 @@
         <v>57.366666666666667</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="str">
         <v>Expert</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>57.466666666666669</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="str">
         <v>Managerial</v>
       </c>
@@ -1457,21 +1460,21 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E20" s="14"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E21" s="14"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="4" t="str" cm="1">
         <f t="array" ref="C22:D27">_xlfn.LET(
     _xlpm.a, _xlfn._xlws.FILTER(_xlfn.HSTACK(C3:C12, "2024-08-16" - D3:D12), E3:E12 = "-"),
@@ -1491,12 +1494,23 @@
         <f t="array" ref="G22:H23">_xlfn.GROUPBY(C22:C27,D22:D27/365*12,_xleta.AVERAGE,0,0)</f>
         <v>Expert</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="17">
         <v>56.580821917808223</v>
       </c>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="str" cm="1">
+        <f t="array" ref="J22:K23">_xlfn.LET(
+_xlpm.d, _xlfn._xlws.FILTER(C3:E12,E3:E12="-"),
+_xlpm.dz, _xlfn.HSTACK(_xlfn.TAKE(_xlpm.d,,1),_xlfn.SEQUENCE(ROWS(_xlpm.d),1,DATEVALUE("16/8/2024")-_xlfn.CHOOSECOLS(_xlpm.d,2))),
+_xlfn.GROUPBY(_xlfn.TAKE(_xlpm.dz,,1),_xlfn.TAKE(_xlpm.dz,,-1),_xlfn.LAMBDA(_xlpm.x,AVERAGE(_xlpm.x/365*12)),0,0)
+)</f>
+        <v>Expert</v>
+      </c>
+      <c r="K22" s="6">
+        <v>56.580821917808223</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="str">
         <v>Managerial</v>
       </c>
@@ -1511,12 +1525,18 @@
       <c r="G23" s="1" t="str">
         <v>Managerial</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="17">
         <v>56.679452054794524</v>
       </c>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="str">
+        <v>Managerial</v>
+      </c>
+      <c r="K23" s="6">
+        <v>56.679452054794524</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="str">
         <v>Expert</v>
       </c>
@@ -1532,7 +1552,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="str">
         <v>Expert</v>
       </c>
@@ -1548,7 +1568,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="str">
         <v>Managerial</v>
       </c>
@@ -1560,7 +1580,7 @@
         <v>43.726027397260275</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="str">
         <v>Expert</v>
       </c>

--- a/CH-108 AVG Cooperation time.xlsx
+++ b/CH-108 AVG Cooperation time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659BA8B8-E2B7-48F4-AAB7-5ABFA1A52B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8DD67C-939A-4D80-9A36-0FF3F58BC059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -334,6 +334,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABCA3EF-CC2C-4C30-B434-E409E5304F57}">
-  <dimension ref="B1:M27"/>
+  <dimension ref="B1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1260,7 +1263,10 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6" cm="1">
+        <f t="array" ref="J6:J15">"16/8/2024"-D3:D12</f>
+        <v>2502</v>
+      </c>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1280,7 +1286,9 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6">
+        <v>2302</v>
+      </c>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1300,7 +1308,9 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6">
+        <v>2118</v>
+      </c>
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1320,7 +1330,9 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6">
+        <v>1869</v>
+      </c>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1336,7 +1348,9 @@
       <c r="E10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="6"/>
+      <c r="J10" s="6">
+        <v>1698</v>
+      </c>
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1356,7 +1370,9 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6">
+        <v>1605</v>
+      </c>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -1372,19 +1388,27 @@
       <c r="E12" s="13">
         <v>45222</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="6">
+        <v>1574</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
+      <c r="J13" s="6">
+        <v>1330</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
+      <c r="J14" s="6">
+        <v>1110</v>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E15" s="14"/>
@@ -1392,6 +1416,9 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
+      <c r="J15" s="6">
+        <v>1103</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E16" s="14"/>
@@ -1400,7 +1427,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="str" cm="1">
         <f t="array" ref="C17:D19">_xlfn.LET(
     _xlpm.a, _xlfn._xlws.FILTER(_xlfn.HSTACK(C3:C12, "2024-08-16" - D3:D12), E3:E12 = "-"),
@@ -1421,14 +1448,18 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="str" cm="1">
-        <f t="array" ref="H17:I18">_xlfn.LET(_xlpm.u, _xlfn.UNIQUE(C3:C12), _xlfn.HSTACK(_xlpm.u, _xlfn.MAP(_xlpm.u, _xlfn.LAMBDA(_xlpm.a, AVERAGE(_xlfn._xlws.FILTER(45520-D3:D12, (C3:C12=_xlpm.a)*(E3:E12="-"))/30)))))</f>
+        <f t="array" ref="H17:I18">_xlfn.LET(_xlpm.u, _xlfn.UNIQUE(C3:C12), _xlfn.HSTACK(_xlpm.u, _xlfn.MAP(_xlpm.u, _xlfn.LAMBDA(_xlpm.a, AVERAGE(_xlfn._xlws.FILTER(--"2024/08/16"-D3:D12, (C3:C12=_xlpm.a)*(E3:E12="-"))/30)))))</f>
         <v>Expert</v>
       </c>
       <c r="I17" s="4">
         <v>57.366666666666667</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <f>--"2024/8/16"</f>
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="str">
         <v>Expert</v>
       </c>
@@ -1447,7 +1478,7 @@
         <v>57.466666666666669</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="str">
         <v>Managerial</v>
       </c>
@@ -1460,21 +1491,21 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E20" s="14"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E21" s="14"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="4" t="str" cm="1">
         <f t="array" ref="C22:D27">_xlfn.LET(
     _xlpm.a, _xlfn._xlws.FILTER(_xlfn.HSTACK(C3:C12, "2024-08-16" - D3:D12), E3:E12 = "-"),
@@ -1501,16 +1532,16 @@
       <c r="J22" t="str" cm="1">
         <f t="array" ref="J22:K23">_xlfn.LET(
 _xlpm.d, _xlfn._xlws.FILTER(C3:E12,E3:E12="-"),
-_xlpm.dz, _xlfn.HSTACK(_xlfn.TAKE(_xlpm.d,,1),_xlfn.SEQUENCE(ROWS(_xlpm.d),1,DATEVALUE("16/8/2024")-_xlfn.CHOOSECOLS(_xlpm.d,2))),
+_xlpm.dz, _xlfn.HSTACK(_xlfn.TAKE(_xlpm.d,,1),_xlfn.SEQUENCE(ROWS(_xlpm.d),1,DATE(2024,8,16))-_xlfn.CHOOSECOLS(_xlpm.d,2)),
 _xlfn.GROUPBY(_xlfn.TAKE(_xlpm.dz,,1),_xlfn.TAKE(_xlpm.dz,,-1),_xlfn.LAMBDA(_xlpm.x,AVERAGE(_xlpm.x/365*12)),0,0)
 )</f>
         <v>Expert</v>
       </c>
       <c r="K22" s="6">
-        <v>56.580821917808223</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+        <v>56.663013698630145</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="str">
         <v>Managerial</v>
       </c>
@@ -1533,10 +1564,10 @@
         <v>Managerial</v>
       </c>
       <c r="K23" s="6">
-        <v>56.679452054794524</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+        <v>56.761643835616439</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="str">
         <v>Expert</v>
       </c>
@@ -1552,7 +1583,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="str">
         <v>Expert</v>
       </c>
@@ -1568,7 +1599,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="str">
         <v>Managerial</v>
       </c>
@@ -1580,7 +1611,7 @@
         <v>43.726027397260275</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="str">
         <v>Expert</v>
       </c>
@@ -1590,6 +1621,30 @@
       <c r="E27" s="14">
         <f t="shared" si="0"/>
         <v>36.493150684931507</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="F28" s="14">
+        <f>AVERAGE(E22,E24,E25,E27)</f>
+        <v>56.580821917808223</v>
+      </c>
+      <c r="I28" s="20" t="str" cm="1">
+        <f t="array" ref="I28:J29">_xlfn.LET(
+_xlpm.d, _xlfn._xlws.FILTER(_xlfn.HSTACK(C3:C12,"2024-08-16"-D3:D12),E3:E12="-"),
+ _xlfn.GROUPBY(_xlfn.TAKE(_xlpm.d, , 1), _xlfn.TAKE(_xlpm.d, , -1) / 365 * 12, _xleta.AVERAGE, 0, 0)
+)</f>
+        <v>Expert</v>
+      </c>
+      <c r="J28">
+        <v>56.580821917808223</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="I29" t="str">
+        <v>Managerial</v>
+      </c>
+      <c r="J29">
+        <v>56.679452054794524</v>
       </c>
     </row>
   </sheetData>
